--- a/Tests/Validation/Wheat/data/2020Results.xlsx
+++ b/Tests/Validation/Wheat/data/2020Results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,13 +48,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,117 +439,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>SimulationName</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Clock.Today</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Phenology.CurrentStageName</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Leaf.Tips</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Leaf.Ligules</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Phenology.FinalLeafNumber</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Wheat.AboveGround.Wt</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Leaf.Wt</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Leaf.Live.Wt</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Leaf.Dead.Wt</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Stem.Wt</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Leaf.LAI</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Phenology.Zadok.Stage</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Grain.Wt</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Ear.Wt</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Spike.Wt</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Grain.Number</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Grain.Size</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Leaf.CoverGreen</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Phenology.TerminalSpikeletDAS</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Phenology.FloweringDAS</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Wheat.Phenology.MaturityDAS</t>
         </is>
@@ -548,7 +561,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +598,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -624,7 +637,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -663,7 +676,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -702,7 +715,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -741,7 +754,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -780,7 +793,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -819,7 +832,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="3" t="n">
         <v>41610</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -870,7 +883,7 @@
           <t>Leeston2013Sow16-AprPopn100</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -929,7 +942,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -966,7 +979,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1005,7 +1018,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1048,7 +1061,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1087,7 +1100,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1128,7 +1141,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1169,7 +1182,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1208,7 +1221,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1249,7 +1262,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1288,7 +1301,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1329,7 +1342,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1368,7 +1381,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1407,7 +1420,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1448,7 +1461,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1487,7 +1500,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1530,7 +1543,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1573,7 +1586,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1616,7 +1629,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="3" t="n">
         <v>41610</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1667,7 +1680,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1704,7 +1717,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1743,7 +1756,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1782,7 +1795,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1819,7 +1832,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="3" t="n">
         <v>41660</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1856,7 +1869,7 @@
           <t>Leeston2013Sow16-AprPopn150</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1915,7 +1928,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1952,7 +1965,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1991,7 +2004,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2030,7 +2043,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2069,7 +2082,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2108,7 +2121,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2147,7 +2160,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2186,7 +2199,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="3" t="n">
         <v>41610</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2237,7 +2250,7 @@
           <t>Leeston2013Sow16-AprPopn200</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2296,7 +2309,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2333,7 +2346,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2372,7 +2385,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2413,7 +2426,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2452,7 +2465,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2491,7 +2504,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2530,7 +2543,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2569,7 +2582,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2608,7 +2621,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2647,7 +2660,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2686,7 +2699,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2725,7 +2738,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2764,7 +2777,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2803,7 +2816,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2842,7 +2855,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2883,7 +2896,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2924,7 +2937,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2965,7 +2978,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="3" t="n">
         <v>41610</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -3016,7 +3029,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3055,7 +3068,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3096,7 +3109,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3137,7 +3150,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3176,7 +3189,7 @@
           <t>Leeston2013Sow16-AprPopn250</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3235,7 +3248,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3272,7 +3285,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3313,7 +3326,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3358,7 +3371,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3397,7 +3410,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3440,7 +3453,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3483,7 +3496,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3522,7 +3535,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3565,7 +3578,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3604,7 +3617,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3647,7 +3660,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3686,7 +3699,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3725,7 +3738,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3768,7 +3781,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3807,7 +3820,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3852,7 +3865,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3897,7 +3910,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3942,7 +3955,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="3" t="n">
         <v>41610</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3993,7 +4006,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4032,7 +4045,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4073,7 +4086,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4114,7 +4127,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4153,7 +4166,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="3" t="n">
         <v>41660</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4190,7 +4203,7 @@
           <t>Leeston2013Sow16-AprPopn50</t>
         </is>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -4249,7 +4262,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="3" t="n">
         <v>41325</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4286,7 +4299,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4325,7 +4338,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4364,7 +4377,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4403,7 +4416,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4442,7 +4455,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4481,7 +4494,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4520,7 +4533,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="3" t="n">
         <v>41592</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4571,7 +4584,7 @@
           <t>Leeston2013Sow20-FebPopn100</t>
         </is>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4630,7 +4643,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="3" t="n">
         <v>41325</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4667,7 +4680,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4708,7 +4721,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4751,7 +4764,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4794,7 +4807,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4833,7 +4846,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4874,7 +4887,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4915,7 +4928,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4954,7 +4967,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4995,7 +5008,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5034,7 +5047,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5075,7 +5088,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5114,7 +5127,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5153,7 +5166,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5194,7 +5207,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5233,7 +5246,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5276,7 +5289,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5319,7 +5332,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="3" t="n">
         <v>41592</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5370,7 +5383,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5413,7 +5426,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5450,7 +5463,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5489,7 +5502,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5528,7 +5541,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5565,7 +5578,7 @@
           <t>Leeston2013Sow20-FebPopn150</t>
         </is>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5624,7 +5637,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="3" t="n">
         <v>41325</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5661,7 +5674,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5700,7 +5713,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5739,7 +5752,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5778,7 +5791,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5817,7 +5830,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5856,7 +5869,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5895,7 +5908,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="3" t="n">
         <v>41592</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5946,7 +5959,7 @@
           <t>Leeston2013Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -6005,7 +6018,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="3" t="n">
         <v>41325</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -6042,7 +6055,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -6081,7 +6094,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6122,7 +6135,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -6163,7 +6176,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -6202,7 +6215,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6241,7 +6254,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6280,7 +6293,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6319,7 +6332,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6358,7 +6371,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6397,7 +6410,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6436,7 +6449,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6475,7 +6488,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6514,7 +6527,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6553,7 +6566,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6592,7 +6605,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6633,7 +6646,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6674,7 +6687,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="3" t="n">
         <v>41592</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6725,7 +6738,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6766,7 +6779,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6805,7 +6818,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6846,7 +6859,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6887,7 +6900,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6926,7 +6939,7 @@
           <t>Leeston2013Sow20-FebPopn250</t>
         </is>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -6985,7 +6998,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="3" t="n">
         <v>41325</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -7022,7 +7035,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -7065,7 +7078,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -7110,7 +7123,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="B160" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -7155,7 +7168,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7194,7 +7207,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7237,7 +7250,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7280,7 +7293,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7319,7 +7332,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7362,7 +7375,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7401,7 +7414,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7444,7 +7457,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7483,7 +7496,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -7522,7 +7535,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7565,7 +7578,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7604,7 +7617,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7649,7 +7662,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7694,7 +7707,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="3" t="n">
         <v>41592</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7745,7 +7758,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7790,7 +7803,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7829,7 +7842,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7870,7 +7883,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7911,7 +7924,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7950,7 +7963,7 @@
           <t>Leeston2013Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -8009,7 +8022,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="3" t="n">
         <v>41359</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -8046,7 +8059,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -8085,7 +8098,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -8124,7 +8137,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -8163,7 +8176,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -8202,7 +8215,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -8241,7 +8254,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -8280,7 +8293,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="3" t="n">
         <v>41600</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8331,7 +8344,7 @@
           <t>Leeston2013Sow26-MarPopn100</t>
         </is>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="B189" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -8390,7 +8403,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B190" s="1" t="n">
+      <c r="B190" s="3" t="n">
         <v>41359</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8427,7 +8440,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B191" s="1" t="n">
+      <c r="B191" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8468,7 +8481,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B192" s="1" t="n">
+      <c r="B192" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8511,7 +8524,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B193" s="1" t="n">
+      <c r="B193" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8554,7 +8567,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="B194" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8593,7 +8606,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B195" s="1" t="n">
+      <c r="B195" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8634,7 +8647,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B196" s="1" t="n">
+      <c r="B196" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8675,7 +8688,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B197" s="1" t="n">
+      <c r="B197" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8714,7 +8727,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B198" s="1" t="n">
+      <c r="B198" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8755,7 +8768,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B199" s="1" t="n">
+      <c r="B199" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8794,7 +8807,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B200" s="1" t="n">
+      <c r="B200" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8835,7 +8848,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B201" s="1" t="n">
+      <c r="B201" s="3" t="n">
         <v>41506</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8872,7 +8885,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B202" s="1" t="n">
+      <c r="B202" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8911,7 +8924,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B203" s="1" t="n">
+      <c r="B203" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8950,7 +8963,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B204" s="1" t="n">
+      <c r="B204" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8991,7 +9004,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B205" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -9030,7 +9043,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B206" s="1" t="n">
+      <c r="B206" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -9073,7 +9086,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="B207" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -9116,7 +9129,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="B208" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -9159,7 +9172,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="B209" s="3" t="n">
         <v>41600</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -9210,7 +9223,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B210" s="1" t="n">
+      <c r="B210" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9247,7 +9260,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B211" s="1" t="n">
+      <c r="B211" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9286,7 +9299,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B212" s="1" t="n">
+      <c r="B212" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9325,7 +9338,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B213" s="1" t="n">
+      <c r="B213" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9362,7 +9375,7 @@
           <t>Leeston2013Sow26-MarPopn150</t>
         </is>
       </c>
-      <c r="B214" s="1" t="n">
+      <c r="B214" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -9421,7 +9434,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B215" s="1" t="n">
+      <c r="B215" s="3" t="n">
         <v>41359</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9458,7 +9471,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B216" s="1" t="n">
+      <c r="B216" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9497,7 +9510,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B217" s="1" t="n">
+      <c r="B217" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9536,7 +9549,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B218" s="1" t="n">
+      <c r="B218" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9575,7 +9588,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B219" s="1" t="n">
+      <c r="B219" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9614,7 +9627,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B220" s="1" t="n">
+      <c r="B220" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -9653,7 +9666,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B221" s="1" t="n">
+      <c r="B221" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -9692,7 +9705,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B222" s="1" t="n">
+      <c r="B222" s="3" t="n">
         <v>41600</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9743,7 +9756,7 @@
           <t>Leeston2013Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B223" s="1" t="n">
+      <c r="B223" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C223" t="inlineStr">
@@ -9802,7 +9815,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B224" s="1" t="n">
+      <c r="B224" s="3" t="n">
         <v>41359</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9839,7 +9852,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B225" s="1" t="n">
+      <c r="B225" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9878,7 +9891,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B226" s="1" t="n">
+      <c r="B226" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9919,7 +9932,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B227" s="1" t="n">
+      <c r="B227" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9960,7 +9973,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B228" s="1" t="n">
+      <c r="B228" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9999,7 +10012,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B229" s="1" t="n">
+      <c r="B229" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -10038,7 +10051,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B230" s="1" t="n">
+      <c r="B230" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -10077,7 +10090,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B231" s="1" t="n">
+      <c r="B231" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -10116,7 +10129,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B232" s="1" t="n">
+      <c r="B232" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -10155,7 +10168,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B233" s="1" t="n">
+      <c r="B233" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -10194,7 +10207,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B234" s="1" t="n">
+      <c r="B234" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -10233,7 +10246,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B235" s="1" t="n">
+      <c r="B235" s="3" t="n">
         <v>41506</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -10270,7 +10283,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B236" s="1" t="n">
+      <c r="B236" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10309,7 +10322,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B237" s="1" t="n">
+      <c r="B237" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -10348,7 +10361,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B238" s="1" t="n">
+      <c r="B238" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -10387,7 +10400,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B239" s="1" t="n">
+      <c r="B239" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -10426,7 +10439,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B240" s="1" t="n">
+      <c r="B240" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10467,7 +10480,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B241" s="1" t="n">
+      <c r="B241" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10508,7 +10521,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B242" s="1" t="n">
+      <c r="B242" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -10549,7 +10562,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B243" s="1" t="n">
+      <c r="B243" s="3" t="n">
         <v>41600</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -10600,7 +10613,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B244" s="1" t="n">
+      <c r="B244" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -10639,7 +10652,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B245" s="1" t="n">
+      <c r="B245" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -10680,7 +10693,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B246" s="1" t="n">
+      <c r="B246" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -10721,7 +10734,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B247" s="1" t="n">
+      <c r="B247" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -10760,7 +10773,7 @@
           <t>Leeston2013Sow26-MarPopn250</t>
         </is>
       </c>
-      <c r="B248" s="1" t="n">
+      <c r="B248" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -10819,7 +10832,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B249" s="1" t="n">
+      <c r="B249" s="3" t="n">
         <v>41359</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -10856,7 +10869,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B250" s="1" t="n">
+      <c r="B250" s="3" t="n">
         <v>41380</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -10899,7 +10912,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B251" s="1" t="n">
+      <c r="B251" s="3" t="n">
         <v>41393</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -10944,7 +10957,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B252" s="1" t="n">
+      <c r="B252" s="3" t="n">
         <v>41409</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10989,7 +11002,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B253" s="1" t="n">
+      <c r="B253" s="3" t="n">
         <v>41422</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -11028,7 +11041,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B254" s="1" t="n">
+      <c r="B254" s="3" t="n">
         <v>41431</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -11071,7 +11084,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B255" s="1" t="n">
+      <c r="B255" s="3" t="n">
         <v>41451</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -11114,7 +11127,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B256" s="1" t="n">
+      <c r="B256" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -11153,7 +11166,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B257" s="1" t="n">
+      <c r="B257" s="3" t="n">
         <v>41473</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -11196,7 +11209,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B258" s="1" t="n">
+      <c r="B258" s="3" t="n">
         <v>41480</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -11235,7 +11248,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B259" s="1" t="n">
+      <c r="B259" s="3" t="n">
         <v>41501</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -11278,7 +11291,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B260" s="1" t="n">
+      <c r="B260" s="3" t="n">
         <v>41506</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -11315,7 +11328,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B261" s="1" t="n">
+      <c r="B261" s="3" t="n">
         <v>41512</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -11354,7 +11367,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B262" s="1" t="n">
+      <c r="B262" s="3" t="n">
         <v>41520</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -11393,7 +11406,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B263" s="1" t="n">
+      <c r="B263" s="3" t="n">
         <v>41535</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -11436,7 +11449,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B264" s="1" t="n">
+      <c r="B264" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -11475,7 +11488,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B265" s="1" t="n">
+      <c r="B265" s="3" t="n">
         <v>41562</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -11520,7 +11533,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B266" s="1" t="n">
+      <c r="B266" s="3" t="n">
         <v>41576</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -11565,7 +11578,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B267" s="1" t="n">
+      <c r="B267" s="3" t="n">
         <v>41597</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -11610,7 +11623,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B268" s="1" t="n">
+      <c r="B268" s="3" t="n">
         <v>41600</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -11661,7 +11674,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B269" s="1" t="n">
+      <c r="B269" s="3" t="n">
         <v>41617</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -11700,7 +11713,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B270" s="1" t="n">
+      <c r="B270" s="3" t="n">
         <v>41631</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -11741,7 +11754,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B271" s="1" t="n">
+      <c r="B271" s="3" t="n">
         <v>41646</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -11782,7 +11795,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B272" s="1" t="n">
+      <c r="B272" s="3" t="n">
         <v>41656</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -11821,7 +11834,7 @@
           <t>Leeston2013Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B273" s="1" t="n">
+      <c r="B273" s="3" t="n">
         <v>41667</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -11880,7 +11893,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B274" s="1" t="n">
+      <c r="B274" s="3" t="n">
         <v>41708</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -11917,7 +11930,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B275" s="1" t="n">
+      <c r="B275" s="3" t="n">
         <v>41722</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -11960,7 +11973,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B276" s="1" t="n">
+      <c r="B276" s="3" t="n">
         <v>41731</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -12005,7 +12018,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B277" s="1" t="n">
+      <c r="B277" s="3" t="n">
         <v>41738</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -12050,7 +12063,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B278" s="1" t="n">
+      <c r="B278" s="3" t="n">
         <v>41745</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -12093,7 +12106,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B279" s="1" t="n">
+      <c r="B279" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -12138,7 +12151,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B280" s="1" t="n">
+      <c r="B280" s="3" t="n">
         <v>41768</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -12183,7 +12196,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B281" s="1" t="n">
+      <c r="B281" s="3" t="n">
         <v>41788</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -12226,7 +12239,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B282" s="1" t="n">
+      <c r="B282" s="3" t="n">
         <v>41806</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -12269,7 +12282,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B283" s="1" t="n">
+      <c r="B283" s="3" t="n">
         <v>41808</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -12308,7 +12321,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B284" s="1" t="n">
+      <c r="B284" s="3" t="n">
         <v>41835</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -12353,7 +12366,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B285" s="1" t="n">
+      <c r="B285" s="3" t="n">
         <v>41855</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -12398,7 +12411,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B286" s="1" t="n">
+      <c r="B286" s="3" t="n">
         <v>41870</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -12447,7 +12460,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B287" s="1" t="n">
+      <c r="B287" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -12492,7 +12505,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B288" s="1" t="n">
+      <c r="B288" s="3" t="n">
         <v>41891</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -12531,7 +12544,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B289" s="1" t="n">
+      <c r="B289" s="3" t="n">
         <v>41908</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -12576,7 +12589,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B290" s="1" t="n">
+      <c r="B290" s="3" t="n">
         <v>41912</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -12615,7 +12628,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B291" s="1" t="n">
+      <c r="B291" s="3" t="n">
         <v>41925</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -12660,7 +12673,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B292" s="1" t="n">
+      <c r="B292" s="3" t="n">
         <v>41947</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -12705,7 +12718,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B293" s="1" t="n">
+      <c r="B293" s="3" t="n">
         <v>41964</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -12758,7 +12771,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B294" s="1" t="n">
+      <c r="B294" s="3" t="n">
         <v>41969</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -12803,7 +12816,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B295" s="1" t="n">
+      <c r="B295" s="3" t="n">
         <v>41971</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -12842,7 +12855,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B296" s="1" t="n">
+      <c r="B296" s="3" t="n">
         <v>41984</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -12887,7 +12900,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B297" s="1" t="n">
+      <c r="B297" s="3" t="n">
         <v>41996</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -12932,7 +12945,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B298" s="1" t="n">
+      <c r="B298" s="3" t="n">
         <v>42016</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -12977,7 +12990,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B299" s="1" t="n">
+      <c r="B299" s="3" t="n">
         <v>42024</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -13020,7 +13033,7 @@
           <t>Leeston2014Sow10-MarPopn200</t>
         </is>
       </c>
-      <c r="B300" s="1" t="n">
+      <c r="B300" s="3" t="n">
         <v>42027</v>
       </c>
       <c r="C300" t="inlineStr">
@@ -13079,7 +13092,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B301" s="1" t="n">
+      <c r="B301" s="3" t="n">
         <v>41708</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -13116,7 +13129,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B302" s="1" t="n">
+      <c r="B302" s="3" t="n">
         <v>41722</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -13159,7 +13172,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B303" s="1" t="n">
+      <c r="B303" s="3" t="n">
         <v>41731</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -13204,7 +13217,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B304" s="1" t="n">
+      <c r="B304" s="3" t="n">
         <v>41738</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -13249,7 +13262,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B305" s="1" t="n">
+      <c r="B305" s="3" t="n">
         <v>41745</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -13292,7 +13305,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B306" s="1" t="n">
+      <c r="B306" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -13337,7 +13350,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B307" s="1" t="n">
+      <c r="B307" s="3" t="n">
         <v>41768</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -13382,7 +13395,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B308" s="1" t="n">
+      <c r="B308" s="3" t="n">
         <v>41788</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -13425,7 +13438,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B309" s="1" t="n">
+      <c r="B309" s="3" t="n">
         <v>41806</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -13468,7 +13481,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B310" s="1" t="n">
+      <c r="B310" s="3" t="n">
         <v>41808</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -13507,7 +13520,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B311" s="1" t="n">
+      <c r="B311" s="3" t="n">
         <v>41835</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -13552,7 +13565,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B312" s="1" t="n">
+      <c r="B312" s="3" t="n">
         <v>41855</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -13597,7 +13610,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B313" s="1" t="n">
+      <c r="B313" s="3" t="n">
         <v>41870</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -13646,7 +13659,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B314" s="1" t="n">
+      <c r="B314" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -13691,7 +13704,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B315" s="1" t="n">
+      <c r="B315" s="3" t="n">
         <v>41891</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -13730,7 +13743,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B316" s="1" t="n">
+      <c r="B316" s="3" t="n">
         <v>41908</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -13775,7 +13788,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B317" s="1" t="n">
+      <c r="B317" s="3" t="n">
         <v>41912</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -13814,7 +13827,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B318" s="1" t="n">
+      <c r="B318" s="3" t="n">
         <v>41925</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -13859,7 +13872,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B319" s="1" t="n">
+      <c r="B319" s="3" t="n">
         <v>41947</v>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -13904,7 +13917,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B320" s="1" t="n">
+      <c r="B320" s="3" t="n">
         <v>41964</v>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -13957,7 +13970,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B321" s="1" t="n">
+      <c r="B321" s="3" t="n">
         <v>41969</v>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -14002,7 +14015,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B322" s="1" t="n">
+      <c r="B322" s="3" t="n">
         <v>41971</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -14041,7 +14054,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B323" s="1" t="n">
+      <c r="B323" s="3" t="n">
         <v>41984</v>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -14086,7 +14099,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B324" s="1" t="n">
+      <c r="B324" s="3" t="n">
         <v>41996</v>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -14131,7 +14144,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B325" s="1" t="n">
+      <c r="B325" s="3" t="n">
         <v>42016</v>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -14176,7 +14189,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B326" s="1" t="n">
+      <c r="B326" s="3" t="n">
         <v>42024</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -14221,7 +14234,7 @@
           <t>Leeston2014Sow10-MarPopn50</t>
         </is>
       </c>
-      <c r="B327" s="1" t="n">
+      <c r="B327" s="3" t="n">
         <v>42027</v>
       </c>
       <c r="C327" t="inlineStr">
@@ -14280,7 +14293,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B328" s="1" t="n">
+      <c r="B328" s="3" t="n">
         <v>41690</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -14317,7 +14330,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B329" s="1" t="n">
+      <c r="B329" s="3" t="n">
         <v>41709</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -14360,7 +14373,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B330" s="1" t="n">
+      <c r="B330" s="3" t="n">
         <v>41710</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -14399,7 +14412,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B331" s="1" t="n">
+      <c r="B331" s="3" t="n">
         <v>41722</v>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -14444,7 +14457,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B332" s="1" t="n">
+      <c r="B332" s="3" t="n">
         <v>41731</v>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -14489,7 +14502,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B333" s="1" t="n">
+      <c r="B333" s="3" t="n">
         <v>41738</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -14534,7 +14547,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B334" s="1" t="n">
+      <c r="B334" s="3" t="n">
         <v>41745</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -14577,7 +14590,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B335" s="1" t="n">
+      <c r="B335" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -14622,7 +14635,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B336" s="1" t="n">
+      <c r="B336" s="3" t="n">
         <v>41768</v>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -14667,7 +14680,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B337" s="1" t="n">
+      <c r="B337" s="3" t="n">
         <v>41788</v>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -14710,7 +14723,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B338" s="1" t="n">
+      <c r="B338" s="3" t="n">
         <v>41806</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -14753,7 +14766,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B339" s="1" t="n">
+      <c r="B339" s="3" t="n">
         <v>41808</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -14792,7 +14805,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B340" s="1" t="n">
+      <c r="B340" s="3" t="n">
         <v>41835</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -14837,7 +14850,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B341" s="1" t="n">
+      <c r="B341" s="3" t="n">
         <v>41844</v>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -14884,7 +14897,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B342" s="1" t="n">
+      <c r="B342" s="3" t="n">
         <v>41855</v>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -14929,7 +14942,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B343" s="1" t="n">
+      <c r="B343" s="3" t="n">
         <v>41870</v>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -14968,7 +14981,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B344" s="1" t="n">
+      <c r="B344" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -15013,7 +15026,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B345" s="1" t="n">
+      <c r="B345" s="3" t="n">
         <v>41891</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -15052,7 +15065,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B346" s="1" t="n">
+      <c r="B346" s="3" t="n">
         <v>41908</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -15097,7 +15110,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B347" s="1" t="n">
+      <c r="B347" s="3" t="n">
         <v>41912</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -15136,7 +15149,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B348" s="1" t="n">
+      <c r="B348" s="3" t="n">
         <v>41925</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -15181,7 +15194,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B349" s="1" t="n">
+      <c r="B349" s="3" t="n">
         <v>41947</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -15226,7 +15239,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B350" s="1" t="n">
+      <c r="B350" s="3" t="n">
         <v>41964</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -15279,7 +15292,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B351" s="1" t="n">
+      <c r="B351" s="3" t="n">
         <v>41969</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -15324,7 +15337,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B352" s="1" t="n">
+      <c r="B352" s="3" t="n">
         <v>41971</v>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -15363,7 +15376,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B353" s="1" t="n">
+      <c r="B353" s="3" t="n">
         <v>41984</v>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -15406,7 +15419,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B354" s="1" t="n">
+      <c r="B354" s="3" t="n">
         <v>41996</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -15449,7 +15462,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B355" s="1" t="n">
+      <c r="B355" s="3" t="n">
         <v>42016</v>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -15492,7 +15505,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B356" s="1" t="n">
+      <c r="B356" s="3" t="n">
         <v>42024</v>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -15535,7 +15548,7 @@
           <t>Leeston2014Sow20-FebPopn200</t>
         </is>
       </c>
-      <c r="B357" s="1" t="n">
+      <c r="B357" s="3" t="n">
         <v>42027</v>
       </c>
       <c r="C357" t="inlineStr">
@@ -15594,7 +15607,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B358" s="1" t="n">
+      <c r="B358" s="3" t="n">
         <v>41690</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -15631,7 +15644,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B359" s="1" t="n">
+      <c r="B359" s="3" t="n">
         <v>41709</v>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -15674,7 +15687,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B360" s="1" t="n">
+      <c r="B360" s="3" t="n">
         <v>41710</v>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -15711,7 +15724,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B361" s="1" t="n">
+      <c r="B361" s="3" t="n">
         <v>41722</v>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -15756,7 +15769,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B362" s="1" t="n">
+      <c r="B362" s="3" t="n">
         <v>41731</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -15801,7 +15814,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B363" s="1" t="n">
+      <c r="B363" s="3" t="n">
         <v>41738</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -15846,7 +15859,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B364" s="1" t="n">
+      <c r="B364" s="3" t="n">
         <v>41745</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -15889,7 +15902,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B365" s="1" t="n">
+      <c r="B365" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -15934,7 +15947,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B366" s="1" t="n">
+      <c r="B366" s="3" t="n">
         <v>41768</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -15979,7 +15992,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B367" s="1" t="n">
+      <c r="B367" s="3" t="n">
         <v>41788</v>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -16022,7 +16035,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B368" s="1" t="n">
+      <c r="B368" s="3" t="n">
         <v>41806</v>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -16065,7 +16078,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B369" s="1" t="n">
+      <c r="B369" s="3" t="n">
         <v>41808</v>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -16104,7 +16117,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B370" s="1" t="n">
+      <c r="B370" s="3" t="n">
         <v>41835</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -16149,7 +16162,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B371" s="1" t="n">
+      <c r="B371" s="3" t="n">
         <v>41844</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -16196,7 +16209,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B372" s="1" t="n">
+      <c r="B372" s="3" t="n">
         <v>41855</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -16241,7 +16254,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B373" s="1" t="n">
+      <c r="B373" s="3" t="n">
         <v>41870</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -16280,7 +16293,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B374" s="1" t="n">
+      <c r="B374" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -16325,7 +16338,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B375" s="1" t="n">
+      <c r="B375" s="3" t="n">
         <v>41891</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -16364,7 +16377,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B376" s="1" t="n">
+      <c r="B376" s="3" t="n">
         <v>41908</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -16409,7 +16422,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B377" s="1" t="n">
+      <c r="B377" s="3" t="n">
         <v>41912</v>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -16448,7 +16461,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B378" s="1" t="n">
+      <c r="B378" s="3" t="n">
         <v>41925</v>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -16493,7 +16506,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B379" s="1" t="n">
+      <c r="B379" s="3" t="n">
         <v>41947</v>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -16538,7 +16551,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B380" s="1" t="n">
+      <c r="B380" s="3" t="n">
         <v>41964</v>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -16591,7 +16604,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B381" s="1" t="n">
+      <c r="B381" s="3" t="n">
         <v>41969</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -16636,7 +16649,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B382" s="1" t="n">
+      <c r="B382" s="3" t="n">
         <v>41971</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -16675,7 +16688,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B383" s="1" t="n">
+      <c r="B383" s="3" t="n">
         <v>41984</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -16718,7 +16731,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B384" s="1" t="n">
+      <c r="B384" s="3" t="n">
         <v>41996</v>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -16761,7 +16774,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B385" s="1" t="n">
+      <c r="B385" s="3" t="n">
         <v>42016</v>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -16804,7 +16817,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B386" s="1" t="n">
+      <c r="B386" s="3" t="n">
         <v>42024</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -16847,7 +16860,7 @@
           <t>Leeston2014Sow20-FebPopn50</t>
         </is>
       </c>
-      <c r="B387" s="1" t="n">
+      <c r="B387" s="3" t="n">
         <v>42027</v>
       </c>
       <c r="C387" t="inlineStr">
@@ -16906,7 +16919,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B388" s="1" t="n">
+      <c r="B388" s="3" t="n">
         <v>41752</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -16943,7 +16956,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B389" s="1" t="n">
+      <c r="B389" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -16982,7 +16995,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B390" s="1" t="n">
+      <c r="B390" s="3" t="n">
         <v>41768</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -17021,7 +17034,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B391" s="1" t="n">
+      <c r="B391" s="3" t="n">
         <v>41788</v>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -17064,7 +17077,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B392" s="1" t="n">
+      <c r="B392" s="3" t="n">
         <v>41806</v>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -17107,7 +17120,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B393" s="1" t="n">
+      <c r="B393" s="3" t="n">
         <v>41808</v>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -17146,7 +17159,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B394" s="1" t="n">
+      <c r="B394" s="3" t="n">
         <v>41835</v>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -17191,7 +17204,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B395" s="1" t="n">
+      <c r="B395" s="3" t="n">
         <v>41855</v>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -17236,7 +17249,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B396" s="1" t="n">
+      <c r="B396" s="3" t="n">
         <v>41870</v>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -17275,7 +17288,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B397" s="1" t="n">
+      <c r="B397" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -17320,7 +17333,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B398" s="1" t="n">
+      <c r="B398" s="3" t="n">
         <v>41891</v>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -17359,7 +17372,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B399" s="1" t="n">
+      <c r="B399" s="3" t="n">
         <v>41908</v>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -17404,7 +17417,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B400" s="1" t="n">
+      <c r="B400" s="3" t="n">
         <v>41912</v>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -17453,7 +17466,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B401" s="1" t="n">
+      <c r="B401" s="3" t="n">
         <v>41925</v>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -17498,7 +17511,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B402" s="1" t="n">
+      <c r="B402" s="3" t="n">
         <v>41947</v>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -17543,7 +17556,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B403" s="1" t="n">
+      <c r="B403" s="3" t="n">
         <v>41964</v>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -17582,7 +17595,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B404" s="1" t="n">
+      <c r="B404" s="3" t="n">
         <v>41969</v>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -17627,7 +17640,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B405" s="1" t="n">
+      <c r="B405" s="3" t="n">
         <v>41971</v>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -17680,7 +17693,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B406" s="1" t="n">
+      <c r="B406" s="3" t="n">
         <v>41984</v>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -17725,7 +17738,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B407" s="1" t="n">
+      <c r="B407" s="3" t="n">
         <v>41996</v>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -17770,7 +17783,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B408" s="1" t="n">
+      <c r="B408" s="3" t="n">
         <v>42016</v>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -17815,7 +17828,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B409" s="1" t="n">
+      <c r="B409" s="3" t="n">
         <v>42024</v>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -17860,7 +17873,7 @@
           <t>Leeston2014Sow23-AprPopn200</t>
         </is>
       </c>
-      <c r="B410" s="1" t="n">
+      <c r="B410" s="3" t="n">
         <v>42037</v>
       </c>
       <c r="C410" t="inlineStr">
@@ -17919,7 +17932,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B411" s="1" t="n">
+      <c r="B411" s="3" t="n">
         <v>41752</v>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -17956,7 +17969,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B412" s="1" t="n">
+      <c r="B412" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -17995,7 +18008,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B413" s="1" t="n">
+      <c r="B413" s="3" t="n">
         <v>41768</v>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -18034,7 +18047,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B414" s="1" t="n">
+      <c r="B414" s="3" t="n">
         <v>41788</v>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -18077,7 +18090,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B415" s="1" t="n">
+      <c r="B415" s="3" t="n">
         <v>41806</v>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -18120,7 +18133,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B416" s="1" t="n">
+      <c r="B416" s="3" t="n">
         <v>41808</v>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -18159,7 +18172,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B417" s="1" t="n">
+      <c r="B417" s="3" t="n">
         <v>41835</v>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -18204,7 +18217,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B418" s="1" t="n">
+      <c r="B418" s="3" t="n">
         <v>41855</v>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -18249,7 +18262,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B419" s="1" t="n">
+      <c r="B419" s="3" t="n">
         <v>41870</v>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -18288,7 +18301,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B420" s="1" t="n">
+      <c r="B420" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -18333,7 +18346,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B421" s="1" t="n">
+      <c r="B421" s="3" t="n">
         <v>41891</v>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -18372,7 +18385,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B422" s="1" t="n">
+      <c r="B422" s="3" t="n">
         <v>41908</v>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -18417,7 +18430,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B423" s="1" t="n">
+      <c r="B423" s="3" t="n">
         <v>41912</v>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -18466,7 +18479,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B424" s="1" t="n">
+      <c r="B424" s="3" t="n">
         <v>41925</v>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -18511,7 +18524,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B425" s="1" t="n">
+      <c r="B425" s="3" t="n">
         <v>41947</v>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -18556,7 +18569,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B426" s="1" t="n">
+      <c r="B426" s="3" t="n">
         <v>41964</v>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -18595,7 +18608,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B427" s="1" t="n">
+      <c r="B427" s="3" t="n">
         <v>41969</v>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -18640,7 +18653,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B428" s="1" t="n">
+      <c r="B428" s="3" t="n">
         <v>41971</v>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -18693,7 +18706,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B429" s="1" t="n">
+      <c r="B429" s="3" t="n">
         <v>41984</v>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -18738,7 +18751,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B430" s="1" t="n">
+      <c r="B430" s="3" t="n">
         <v>41996</v>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -18783,7 +18796,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B431" s="1" t="n">
+      <c r="B431" s="3" t="n">
         <v>42016</v>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -18828,7 +18841,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B432" s="1" t="n">
+      <c r="B432" s="3" t="n">
         <v>42024</v>
       </c>
       <c r="C432" t="inlineStr"/>
@@ -18873,7 +18886,7 @@
           <t>Leeston2014Sow23-AprPopn50</t>
         </is>
       </c>
-      <c r="B433" s="1" t="n">
+      <c r="B433" s="3" t="n">
         <v>42037</v>
       </c>
       <c r="C433" t="inlineStr">
@@ -18932,7 +18945,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B434" s="1" t="n">
+      <c r="B434" s="3" t="n">
         <v>41724</v>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -18969,7 +18982,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B435" s="1" t="n">
+      <c r="B435" s="3" t="n">
         <v>41738</v>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -19012,7 +19025,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B436" s="1" t="n">
+      <c r="B436" s="3" t="n">
         <v>41745</v>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -19055,7 +19068,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B437" s="1" t="n">
+      <c r="B437" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -19100,7 +19113,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B438" s="1" t="n">
+      <c r="B438" s="3" t="n">
         <v>41768</v>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -19145,7 +19158,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B439" s="1" t="n">
+      <c r="B439" s="3" t="n">
         <v>41788</v>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -19188,7 +19201,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B440" s="1" t="n">
+      <c r="B440" s="3" t="n">
         <v>41806</v>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -19231,7 +19244,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B441" s="1" t="n">
+      <c r="B441" s="3" t="n">
         <v>41808</v>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -19270,7 +19283,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B442" s="1" t="n">
+      <c r="B442" s="3" t="n">
         <v>41835</v>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -19315,7 +19328,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B443" s="1" t="n">
+      <c r="B443" s="3" t="n">
         <v>41855</v>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -19360,7 +19373,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B444" s="1" t="n">
+      <c r="B444" s="3" t="n">
         <v>41870</v>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -19399,7 +19412,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B445" s="1" t="n">
+      <c r="B445" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -19444,7 +19457,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B446" s="1" t="n">
+      <c r="B446" s="3" t="n">
         <v>41891</v>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -19493,7 +19506,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B447" s="1" t="n">
+      <c r="B447" s="3" t="n">
         <v>41908</v>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -19538,7 +19551,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B448" s="1" t="n">
+      <c r="B448" s="3" t="n">
         <v>41912</v>
       </c>
       <c r="C448" t="inlineStr"/>
@@ -19577,7 +19590,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B449" s="1" t="n">
+      <c r="B449" s="3" t="n">
         <v>41925</v>
       </c>
       <c r="C449" t="inlineStr"/>
@@ -19622,7 +19635,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B450" s="1" t="n">
+      <c r="B450" s="3" t="n">
         <v>41947</v>
       </c>
       <c r="C450" t="inlineStr"/>
@@ -19667,7 +19680,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B451" s="1" t="n">
+      <c r="B451" s="3" t="n">
         <v>41964</v>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -19706,7 +19719,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B452" s="1" t="n">
+      <c r="B452" s="3" t="n">
         <v>41969</v>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -19751,7 +19764,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B453" s="1" t="n">
+      <c r="B453" s="3" t="n">
         <v>41971</v>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -19804,7 +19817,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B454" s="1" t="n">
+      <c r="B454" s="3" t="n">
         <v>41984</v>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -19849,7 +19862,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B455" s="1" t="n">
+      <c r="B455" s="3" t="n">
         <v>41996</v>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -19894,7 +19907,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B456" s="1" t="n">
+      <c r="B456" s="3" t="n">
         <v>42016</v>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -19939,7 +19952,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B457" s="1" t="n">
+      <c r="B457" s="3" t="n">
         <v>42024</v>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -19984,7 +19997,7 @@
           <t>Leeston2014Sow26-MarPopn200</t>
         </is>
       </c>
-      <c r="B458" s="1" t="n">
+      <c r="B458" s="3" t="n">
         <v>42027</v>
       </c>
       <c r="C458" t="inlineStr">
@@ -20043,7 +20056,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B459" s="1" t="n">
+      <c r="B459" s="3" t="n">
         <v>41724</v>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -20080,7 +20093,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B460" s="1" t="n">
+      <c r="B460" s="3" t="n">
         <v>41738</v>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -20123,7 +20136,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B461" s="1" t="n">
+      <c r="B461" s="3" t="n">
         <v>41745</v>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -20166,7 +20179,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B462" s="1" t="n">
+      <c r="B462" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -20211,7 +20224,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B463" s="1" t="n">
+      <c r="B463" s="3" t="n">
         <v>41768</v>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -20256,7 +20269,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B464" s="1" t="n">
+      <c r="B464" s="3" t="n">
         <v>41788</v>
       </c>
       <c r="C464" t="inlineStr"/>
@@ -20299,7 +20312,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B465" s="1" t="n">
+      <c r="B465" s="3" t="n">
         <v>41806</v>
       </c>
       <c r="C465" t="inlineStr"/>
@@ -20342,7 +20355,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B466" s="1" t="n">
+      <c r="B466" s="3" t="n">
         <v>41808</v>
       </c>
       <c r="C466" t="inlineStr"/>
@@ -20381,7 +20394,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B467" s="1" t="n">
+      <c r="B467" s="3" t="n">
         <v>41835</v>
       </c>
       <c r="C467" t="inlineStr"/>
@@ -20426,7 +20439,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B468" s="1" t="n">
+      <c r="B468" s="3" t="n">
         <v>41855</v>
       </c>
       <c r="C468" t="inlineStr"/>
@@ -20471,7 +20484,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B469" s="1" t="n">
+      <c r="B469" s="3" t="n">
         <v>41870</v>
       </c>
       <c r="C469" t="inlineStr"/>
@@ -20510,7 +20523,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B470" s="1" t="n">
+      <c r="B470" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="C470" t="inlineStr"/>
@@ -20555,7 +20568,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B471" s="1" t="n">
+      <c r="B471" s="3" t="n">
         <v>41891</v>
       </c>
       <c r="C471" t="inlineStr"/>
@@ -20604,7 +20617,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B472" s="1" t="n">
+      <c r="B472" s="3" t="n">
         <v>41908</v>
       </c>
       <c r="C472" t="inlineStr"/>
@@ -20649,7 +20662,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B473" s="1" t="n">
+      <c r="B473" s="3" t="n">
         <v>41912</v>
       </c>
       <c r="C473" t="inlineStr"/>
@@ -20688,7 +20701,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B474" s="1" t="n">
+      <c r="B474" s="3" t="n">
         <v>41925</v>
       </c>
       <c r="C474" t="inlineStr"/>
@@ -20733,7 +20746,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B475" s="1" t="n">
+      <c r="B475" s="3" t="n">
         <v>41947</v>
       </c>
       <c r="C475" t="inlineStr"/>
@@ -20778,7 +20791,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B476" s="1" t="n">
+      <c r="B476" s="3" t="n">
         <v>41964</v>
       </c>
       <c r="C476" t="inlineStr"/>
@@ -20817,7 +20830,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B477" s="1" t="n">
+      <c r="B477" s="3" t="n">
         <v>41969</v>
       </c>
       <c r="C477" t="inlineStr"/>
@@ -20862,7 +20875,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B478" s="1" t="n">
+      <c r="B478" s="3" t="n">
         <v>41971</v>
       </c>
       <c r="C478" t="inlineStr"/>
@@ -20915,7 +20928,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B479" s="1" t="n">
+      <c r="B479" s="3" t="n">
         <v>41984</v>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -20960,7 +20973,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B480" s="1" t="n">
+      <c r="B480" s="3" t="n">
         <v>41996</v>
       </c>
       <c r="C480" t="inlineStr"/>
@@ -21005,7 +21018,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B481" s="1" t="n">
+      <c r="B481" s="3" t="n">
         <v>42016</v>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -21050,7 +21063,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B482" s="1" t="n">
+      <c r="B482" s="3" t="n">
         <v>42024</v>
       </c>
       <c r="C482" t="inlineStr"/>
@@ -21095,7 +21108,7 @@
           <t>Leeston2014Sow26-MarPopn50</t>
         </is>
       </c>
-      <c r="B483" s="1" t="n">
+      <c r="B483" s="3" t="n">
         <v>42027</v>
       </c>
       <c r="C483" t="inlineStr">
@@ -21154,7 +21167,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B484" s="1" t="n">
+      <c r="B484" s="3" t="n">
         <v>42103</v>
       </c>
       <c r="C484" t="inlineStr"/>
@@ -21191,7 +21204,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B485" s="1" t="n">
+      <c r="B485" s="3" t="n">
         <v>42118</v>
       </c>
       <c r="C485" t="inlineStr"/>
@@ -21230,7 +21243,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B486" s="1" t="n">
+      <c r="B486" s="3" t="n">
         <v>42135</v>
       </c>
       <c r="C486" t="inlineStr"/>
@@ -21273,7 +21286,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B487" s="1" t="n">
+      <c r="B487" s="3" t="n">
         <v>42151</v>
       </c>
       <c r="C487" t="inlineStr"/>
@@ -21316,7 +21329,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B488" s="1" t="n">
+      <c r="B488" s="3" t="n">
         <v>42172</v>
       </c>
       <c r="C488" t="inlineStr"/>
@@ -21359,7 +21372,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B489" s="1" t="n">
+      <c r="B489" s="3" t="n">
         <v>42202</v>
       </c>
       <c r="C489" t="inlineStr"/>
@@ -21402,7 +21415,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B490" s="1" t="n">
+      <c r="B490" s="3" t="n">
         <v>42215</v>
       </c>
       <c r="C490" t="inlineStr"/>
@@ -21441,7 +21454,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B491" s="1" t="n">
+      <c r="B491" s="3" t="n">
         <v>42235</v>
       </c>
       <c r="C491" t="inlineStr"/>
@@ -21484,7 +21497,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B492" s="1" t="n">
+      <c r="B492" s="3" t="n">
         <v>42255</v>
       </c>
       <c r="C492" t="inlineStr"/>
@@ -21527,7 +21540,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B493" s="1" t="n">
+      <c r="B493" s="3" t="n">
         <v>42268</v>
       </c>
       <c r="C493" t="inlineStr"/>
@@ -21566,7 +21579,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B494" s="1" t="n">
+      <c r="B494" s="3" t="n">
         <v>42276</v>
       </c>
       <c r="C494" t="inlineStr"/>
@@ -21617,7 +21630,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B495" s="1" t="n">
+      <c r="B495" s="3" t="n">
         <v>42278</v>
       </c>
       <c r="C495" t="inlineStr"/>
@@ -21660,7 +21673,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B496" s="1" t="n">
+      <c r="B496" s="3" t="n">
         <v>42298</v>
       </c>
       <c r="C496" t="inlineStr"/>
@@ -21703,7 +21716,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B497" s="1" t="n">
+      <c r="B497" s="3" t="n">
         <v>42320</v>
       </c>
       <c r="C497" t="inlineStr"/>
@@ -21746,7 +21759,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B498" s="1" t="n">
+      <c r="B498" s="3" t="n">
         <v>42332</v>
       </c>
       <c r="C498" t="inlineStr"/>
@@ -21785,7 +21798,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B499" s="1" t="n">
+      <c r="B499" s="3" t="n">
         <v>42339</v>
       </c>
       <c r="C499" t="inlineStr"/>
@@ -21824,7 +21837,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B500" s="1" t="n">
+      <c r="B500" s="3" t="n">
         <v>42346</v>
       </c>
       <c r="C500" t="inlineStr"/>
@@ -21881,7 +21894,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B501" s="1" t="n">
+      <c r="B501" s="3" t="n">
         <v>42374</v>
       </c>
       <c r="C501" t="inlineStr"/>
@@ -21922,7 +21935,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B502" s="1" t="n">
+      <c r="B502" s="3" t="n">
         <v>42394</v>
       </c>
       <c r="C502" t="inlineStr"/>
@@ -21963,7 +21976,7 @@
           <t>Wakanui2015Sow09-AprCmNormal</t>
         </is>
       </c>
-      <c r="B503" s="1" t="n">
+      <c r="B503" s="3" t="n">
         <v>42411</v>
       </c>
       <c r="C503" t="inlineStr">
@@ -22022,7 +22035,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B504" s="1" t="n">
+      <c r="B504" s="3" t="n">
         <v>42073</v>
       </c>
       <c r="C504" t="inlineStr"/>
@@ -22059,7 +22072,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B505" s="1" t="n">
+      <c r="B505" s="3" t="n">
         <v>42087</v>
       </c>
       <c r="C505" t="inlineStr"/>
@@ -22102,7 +22115,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B506" s="1" t="n">
+      <c r="B506" s="3" t="n">
         <v>42096</v>
       </c>
       <c r="C506" t="inlineStr"/>
@@ -22145,7 +22158,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B507" s="1" t="n">
+      <c r="B507" s="3" t="n">
         <v>42102</v>
       </c>
       <c r="C507" t="inlineStr"/>
@@ -22188,7 +22201,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B508" s="1" t="n">
+      <c r="B508" s="3" t="n">
         <v>42118</v>
       </c>
       <c r="C508" t="inlineStr"/>
@@ -22231,7 +22244,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B509" s="1" t="n">
+      <c r="B509" s="3" t="n">
         <v>42135</v>
       </c>
       <c r="C509" t="inlineStr"/>
@@ -22274,7 +22287,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B510" s="1" t="n">
+      <c r="B510" s="3" t="n">
         <v>42151</v>
       </c>
       <c r="C510" t="inlineStr"/>
@@ -22317,7 +22330,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B511" s="1" t="n">
+      <c r="B511" s="3" t="n">
         <v>42172</v>
       </c>
       <c r="C511" t="inlineStr"/>
@@ -22360,7 +22373,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B512" s="1" t="n">
+      <c r="B512" s="3" t="n">
         <v>42202</v>
       </c>
       <c r="C512" t="inlineStr"/>
@@ -22403,7 +22416,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B513" s="1" t="n">
+      <c r="B513" s="3" t="n">
         <v>42215</v>
       </c>
       <c r="C513" t="inlineStr"/>
@@ -22442,7 +22455,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B514" s="1" t="n">
+      <c r="B514" s="3" t="n">
         <v>42235</v>
       </c>
       <c r="C514" t="inlineStr"/>
@@ -22485,7 +22498,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B515" s="1" t="n">
+      <c r="B515" s="3" t="n">
         <v>42255</v>
       </c>
       <c r="C515" t="inlineStr"/>
@@ -22540,7 +22553,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B516" s="1" t="n">
+      <c r="B516" s="3" t="n">
         <v>42268</v>
       </c>
       <c r="C516" t="inlineStr"/>
@@ -22579,7 +22592,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B517" s="1" t="n">
+      <c r="B517" s="3" t="n">
         <v>42276</v>
       </c>
       <c r="C517" t="inlineStr"/>
@@ -22618,7 +22631,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B518" s="1" t="n">
+      <c r="B518" s="3" t="n">
         <v>42278</v>
       </c>
       <c r="C518" t="inlineStr"/>
@@ -22661,7 +22674,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B519" s="1" t="n">
+      <c r="B519" s="3" t="n">
         <v>42298</v>
       </c>
       <c r="C519" t="inlineStr"/>
@@ -22704,7 +22717,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B520" s="1" t="n">
+      <c r="B520" s="3" t="n">
         <v>42320</v>
       </c>
       <c r="C520" t="inlineStr"/>
@@ -22747,7 +22760,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B521" s="1" t="n">
+      <c r="B521" s="3" t="n">
         <v>42332</v>
       </c>
       <c r="C521" t="inlineStr"/>
@@ -22786,7 +22799,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B522" s="1" t="n">
+      <c r="B522" s="3" t="n">
         <v>42339</v>
       </c>
       <c r="C522" t="inlineStr"/>
@@ -22839,7 +22852,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B523" s="1" t="n">
+      <c r="B523" s="3" t="n">
         <v>42346</v>
       </c>
       <c r="C523" t="inlineStr"/>
@@ -22882,7 +22895,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B524" s="1" t="n">
+      <c r="B524" s="3" t="n">
         <v>42374</v>
       </c>
       <c r="C524" t="inlineStr"/>
@@ -22923,7 +22936,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B525" s="1" t="n">
+      <c r="B525" s="3" t="n">
         <v>42394</v>
       </c>
       <c r="C525" t="inlineStr"/>
@@ -22964,7 +22977,7 @@
           <t>Wakanui2015Sow10-MarCmNormal</t>
         </is>
       </c>
-      <c r="B526" s="1" t="n">
+      <c r="B526" s="3" t="n">
         <v>42404</v>
       </c>
       <c r="C526" t="inlineStr">
@@ -23023,7 +23036,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B527" s="1" t="n">
+      <c r="B527" s="3" t="n">
         <v>42055</v>
       </c>
       <c r="C527" t="inlineStr"/>
@@ -23060,7 +23073,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B528" s="1" t="n">
+      <c r="B528" s="3" t="n">
         <v>42067</v>
       </c>
       <c r="C528" t="inlineStr"/>
@@ -23099,7 +23112,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B529" s="1" t="n">
+      <c r="B529" s="3" t="n">
         <v>42076</v>
       </c>
       <c r="C529" t="inlineStr"/>
@@ -23142,7 +23155,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B530" s="1" t="n">
+      <c r="B530" s="3" t="n">
         <v>42087</v>
       </c>
       <c r="C530" t="inlineStr"/>
@@ -23185,7 +23198,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B531" s="1" t="n">
+      <c r="B531" s="3" t="n">
         <v>42096</v>
       </c>
       <c r="C531" t="inlineStr"/>
@@ -23228,7 +23241,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B532" s="1" t="n">
+      <c r="B532" s="3" t="n">
         <v>42102</v>
       </c>
       <c r="C532" t="inlineStr"/>
@@ -23271,7 +23284,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B533" s="1" t="n">
+      <c r="B533" s="3" t="n">
         <v>42118</v>
       </c>
       <c r="C533" t="inlineStr"/>
@@ -23314,7 +23327,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B534" s="1" t="n">
+      <c r="B534" s="3" t="n">
         <v>42135</v>
       </c>
       <c r="C534" t="inlineStr"/>
@@ -23357,7 +23370,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B535" s="1" t="n">
+      <c r="B535" s="3" t="n">
         <v>42151</v>
       </c>
       <c r="C535" t="inlineStr"/>
@@ -23400,7 +23413,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B536" s="1" t="n">
+      <c r="B536" s="3" t="n">
         <v>42172</v>
       </c>
       <c r="C536" t="inlineStr"/>
@@ -23443,7 +23456,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B537" s="1" t="n">
+      <c r="B537" s="3" t="n">
         <v>42202</v>
       </c>
       <c r="C537" t="inlineStr"/>
@@ -23486,7 +23499,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B538" s="1" t="n">
+      <c r="B538" s="3" t="n">
         <v>42215</v>
       </c>
       <c r="C538" t="inlineStr"/>
@@ -23537,7 +23550,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B539" s="1" t="n">
+      <c r="B539" s="3" t="n">
         <v>42235</v>
       </c>
       <c r="C539" t="inlineStr"/>
@@ -23580,7 +23593,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B540" s="1" t="n">
+      <c r="B540" s="3" t="n">
         <v>42255</v>
       </c>
       <c r="C540" t="inlineStr"/>
@@ -23623,7 +23636,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B541" s="1" t="n">
+      <c r="B541" s="3" t="n">
         <v>42268</v>
       </c>
       <c r="C541" t="inlineStr"/>
@@ -23662,7 +23675,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B542" s="1" t="n">
+      <c r="B542" s="3" t="n">
         <v>42276</v>
       </c>
       <c r="C542" t="inlineStr"/>
@@ -23701,7 +23714,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B543" s="1" t="n">
+      <c r="B543" s="3" t="n">
         <v>42278</v>
       </c>
       <c r="C543" t="inlineStr"/>
@@ -23744,7 +23757,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B544" s="1" t="n">
+      <c r="B544" s="3" t="n">
         <v>42298</v>
       </c>
       <c r="C544" t="inlineStr"/>
@@ -23787,7 +23800,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B545" s="1" t="n">
+      <c r="B545" s="3" t="n">
         <v>42320</v>
       </c>
       <c r="C545" t="inlineStr"/>
@@ -23830,7 +23843,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B546" s="1" t="n">
+      <c r="B546" s="3" t="n">
         <v>42332</v>
       </c>
       <c r="C546" t="inlineStr"/>
@@ -23883,7 +23896,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B547" s="1" t="n">
+      <c r="B547" s="3" t="n">
         <v>42339</v>
       </c>
       <c r="C547" t="inlineStr"/>
@@ -23922,7 +23935,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B548" s="1" t="n">
+      <c r="B548" s="3" t="n">
         <v>42346</v>
       </c>
       <c r="C548" t="inlineStr"/>
@@ -23965,7 +23978,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B549" s="1" t="n">
+      <c r="B549" s="3" t="n">
         <v>42374</v>
       </c>
       <c r="C549" t="inlineStr"/>
@@ -24006,7 +24019,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B550" s="1" t="n">
+      <c r="B550" s="3" t="n">
         <v>42394</v>
       </c>
       <c r="C550" t="inlineStr"/>
@@ -24047,7 +24060,7 @@
           <t>Wakanui2015Sow20-FebCmNormal</t>
         </is>
       </c>
-      <c r="B551" s="1" t="n">
+      <c r="B551" s="3" t="n">
         <v>42404</v>
       </c>
       <c r="C551" t="inlineStr">
@@ -24106,7 +24119,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B552" s="1" t="n">
+      <c r="B552" s="3" t="n">
         <v>42083</v>
       </c>
       <c r="C552" t="inlineStr"/>
@@ -24143,7 +24156,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B553" s="1" t="n">
+      <c r="B553" s="3" t="n">
         <v>42096</v>
       </c>
       <c r="C553" t="inlineStr"/>
@@ -24184,7 +24197,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B554" s="1" t="n">
+      <c r="B554" s="3" t="n">
         <v>42102</v>
       </c>
       <c r="C554" t="inlineStr"/>
@@ -24227,7 +24240,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B555" s="1" t="n">
+      <c r="B555" s="3" t="n">
         <v>42118</v>
       </c>
       <c r="C555" t="inlineStr"/>
@@ -24270,7 +24283,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B556" s="1" t="n">
+      <c r="B556" s="3" t="n">
         <v>42135</v>
       </c>
       <c r="C556" t="inlineStr"/>
@@ -24313,7 +24326,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B557" s="1" t="n">
+      <c r="B557" s="3" t="n">
         <v>42151</v>
       </c>
       <c r="C557" t="inlineStr"/>
@@ -24356,7 +24369,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B558" s="1" t="n">
+      <c r="B558" s="3" t="n">
         <v>42172</v>
       </c>
       <c r="C558" t="inlineStr"/>
@@ -24399,7 +24412,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B559" s="1" t="n">
+      <c r="B559" s="3" t="n">
         <v>42202</v>
       </c>
       <c r="C559" t="inlineStr"/>
@@ -24442,7 +24455,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B560" s="1" t="n">
+      <c r="B560" s="3" t="n">
         <v>42215</v>
       </c>
       <c r="C560" t="inlineStr"/>
@@ -24481,7 +24494,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B561" s="1" t="n">
+      <c r="B561" s="3" t="n">
         <v>42235</v>
       </c>
       <c r="C561" t="inlineStr"/>
@@ -24524,7 +24537,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B562" s="1" t="n">
+      <c r="B562" s="3" t="n">
         <v>42255</v>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -24567,7 +24580,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B563" s="1" t="n">
+      <c r="B563" s="3" t="n">
         <v>42268</v>
       </c>
       <c r="C563" t="inlineStr"/>
@@ -24618,7 +24631,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B564" s="1" t="n">
+      <c r="B564" s="3" t="n">
         <v>42276</v>
       </c>
       <c r="C564" t="inlineStr"/>
@@ -24657,7 +24670,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B565" s="1" t="n">
+      <c r="B565" s="3" t="n">
         <v>42278</v>
       </c>
       <c r="C565" t="inlineStr"/>
@@ -24700,7 +24713,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B566" s="1" t="n">
+      <c r="B566" s="3" t="n">
         <v>42298</v>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -24743,7 +24756,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B567" s="1" t="n">
+      <c r="B567" s="3" t="n">
         <v>42320</v>
       </c>
       <c r="C567" t="inlineStr"/>
@@ -24786,7 +24799,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B568" s="1" t="n">
+      <c r="B568" s="3" t="n">
         <v>42332</v>
       </c>
       <c r="C568" t="inlineStr"/>
@@ -24825,7 +24838,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B569" s="1" t="n">
+      <c r="B569" s="3" t="n">
         <v>42339</v>
       </c>
       <c r="C569" t="inlineStr"/>
@@ -24878,7 +24891,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B570" s="1" t="n">
+      <c r="B570" s="3" t="n">
         <v>42346</v>
       </c>
       <c r="C570" t="inlineStr"/>
@@ -24921,7 +24934,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B571" s="1" t="n">
+      <c r="B571" s="3" t="n">
         <v>42374</v>
       </c>
       <c r="C571" t="inlineStr"/>
@@ -24962,7 +24975,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B572" s="1" t="n">
+      <c r="B572" s="3" t="n">
         <v>42394</v>
       </c>
       <c r="C572" t="inlineStr"/>
@@ -25003,7 +25016,7 @@
           <t>Wakanui2015Sow20-MarCmNormal</t>
         </is>
       </c>
-      <c r="B573" s="1" t="n">
+      <c r="B573" s="3" t="n">
         <v>42404</v>
       </c>
       <c r="C573" t="inlineStr">
@@ -25062,7 +25075,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B574" s="1" t="n">
+      <c r="B574" s="3" t="n">
         <v>42437</v>
       </c>
       <c r="C574" t="inlineStr"/>
@@ -25099,7 +25112,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B575" s="1" t="n">
+      <c r="B575" s="3" t="n">
         <v>42466</v>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -25142,7 +25155,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B576" s="1" t="n">
+      <c r="B576" s="3" t="n">
         <v>42478</v>
       </c>
       <c r="C576" t="inlineStr"/>
@@ -25185,7 +25198,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B577" s="1" t="n">
+      <c r="B577" s="3" t="n">
         <v>42487</v>
       </c>
       <c r="C577" t="inlineStr"/>
@@ -25224,7 +25237,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B578" s="1" t="n">
+      <c r="B578" s="3" t="n">
         <v>42488</v>
       </c>
       <c r="C578" t="inlineStr"/>
@@ -25263,7 +25276,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B579" s="1" t="n">
+      <c r="B579" s="3" t="n">
         <v>42500</v>
       </c>
       <c r="C579" t="inlineStr"/>
@@ -25302,7 +25315,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B580" s="1" t="n">
+      <c r="B580" s="3" t="n">
         <v>42501</v>
       </c>
       <c r="C580" t="inlineStr"/>
@@ -25345,7 +25358,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B581" s="1" t="n">
+      <c r="B581" s="3" t="n">
         <v>42521</v>
       </c>
       <c r="C581" t="inlineStr"/>
@@ -25386,7 +25399,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B582" s="1" t="n">
+      <c r="B582" s="3" t="n">
         <v>42544</v>
       </c>
       <c r="C582" t="inlineStr"/>
@@ -25429,7 +25442,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B583" s="1" t="n">
+      <c r="B583" s="3" t="n">
         <v>42558</v>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -25468,7 +25481,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B584" s="1" t="n">
+      <c r="B584" s="3" t="n">
         <v>42565</v>
       </c>
       <c r="C584" t="inlineStr"/>
@@ -25511,7 +25524,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B585" s="1" t="n">
+      <c r="B585" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C585" t="inlineStr"/>
@@ -25554,7 +25567,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B586" s="1" t="n">
+      <c r="B586" s="3" t="n">
         <v>42611</v>
       </c>
       <c r="C586" t="inlineStr"/>
@@ -25593,7 +25606,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B587" s="1" t="n">
+      <c r="B587" s="3" t="n">
         <v>42612</v>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -25636,7 +25649,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B588" s="1" t="n">
+      <c r="B588" s="3" t="n">
         <v>42626</v>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -25687,7 +25700,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B589" s="1" t="n">
+      <c r="B589" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -25730,7 +25743,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B590" s="1" t="n">
+      <c r="B590" s="3" t="n">
         <v>42646</v>
       </c>
       <c r="C590" t="inlineStr"/>
@@ -25769,7 +25782,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B591" s="1" t="n">
+      <c r="B591" s="3" t="n">
         <v>42663</v>
       </c>
       <c r="C591" t="inlineStr"/>
@@ -25810,7 +25823,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B592" s="1" t="n">
+      <c r="B592" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -25853,7 +25866,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B593" s="1" t="n">
+      <c r="B593" s="3" t="n">
         <v>42697</v>
       </c>
       <c r="C593" t="inlineStr"/>
@@ -25892,7 +25905,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B594" s="1" t="n">
+      <c r="B594" s="3" t="n">
         <v>42702</v>
       </c>
       <c r="C594" t="inlineStr"/>
@@ -25943,7 +25956,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B595" s="1" t="n">
+      <c r="B595" s="3" t="n">
         <v>42709</v>
       </c>
       <c r="C595" t="inlineStr"/>
@@ -25986,7 +25999,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B596" s="1" t="n">
+      <c r="B596" s="3" t="n">
         <v>42726</v>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -26027,7 +26040,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B597" s="1" t="n">
+      <c r="B597" s="3" t="n">
         <v>42747</v>
       </c>
       <c r="C597" t="inlineStr"/>
@@ -26068,7 +26081,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B598" s="1" t="n">
+      <c r="B598" s="3" t="n">
         <v>42765</v>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -26105,7 +26118,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B599" s="1" t="n">
+      <c r="B599" s="3" t="n">
         <v>42766</v>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -26146,7 +26159,7 @@
           <t>Wakanui2016Sow08-MarCmNormal</t>
         </is>
       </c>
-      <c r="B600" s="1" t="n">
+      <c r="B600" s="3" t="n">
         <v>42776</v>
       </c>
       <c r="C600" t="inlineStr">
@@ -26205,7 +26218,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B601" s="1" t="n">
+      <c r="B601" s="3" t="n">
         <v>42474</v>
       </c>
       <c r="C601" t="inlineStr"/>
@@ -26242,7 +26255,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B602" s="1" t="n">
+      <c r="B602" s="3" t="n">
         <v>42487</v>
       </c>
       <c r="C602" t="inlineStr"/>
@@ -26281,7 +26294,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B603" s="1" t="n">
+      <c r="B603" s="3" t="n">
         <v>42488</v>
       </c>
       <c r="C603" t="inlineStr"/>
@@ -26320,7 +26333,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B604" s="1" t="n">
+      <c r="B604" s="3" t="n">
         <v>42500</v>
       </c>
       <c r="C604" t="inlineStr"/>
@@ -26359,7 +26372,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B605" s="1" t="n">
+      <c r="B605" s="3" t="n">
         <v>42501</v>
       </c>
       <c r="C605" t="inlineStr"/>
@@ -26402,7 +26415,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B606" s="1" t="n">
+      <c r="B606" s="3" t="n">
         <v>42521</v>
       </c>
       <c r="C606" t="inlineStr"/>
@@ -26443,7 +26456,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B607" s="1" t="n">
+      <c r="B607" s="3" t="n">
         <v>42544</v>
       </c>
       <c r="C607" t="inlineStr"/>
@@ -26486,7 +26499,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B608" s="1" t="n">
+      <c r="B608" s="3" t="n">
         <v>42558</v>
       </c>
       <c r="C608" t="inlineStr"/>
@@ -26525,7 +26538,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B609" s="1" t="n">
+      <c r="B609" s="3" t="n">
         <v>42565</v>
       </c>
       <c r="C609" t="inlineStr"/>
@@ -26568,7 +26581,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B610" s="1" t="n">
+      <c r="B610" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C610" t="inlineStr"/>
@@ -26611,7 +26624,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B611" s="1" t="n">
+      <c r="B611" s="3" t="n">
         <v>42611</v>
       </c>
       <c r="C611" t="inlineStr"/>
@@ -26650,7 +26663,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B612" s="1" t="n">
+      <c r="B612" s="3" t="n">
         <v>42612</v>
       </c>
       <c r="C612" t="inlineStr"/>
@@ -26693,7 +26706,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B613" s="1" t="n">
+      <c r="B613" s="3" t="n">
         <v>42626</v>
       </c>
       <c r="C613" t="inlineStr"/>
@@ -26732,7 +26745,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B614" s="1" t="n">
+      <c r="B614" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C614" t="inlineStr"/>
@@ -26775,7 +26788,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B615" s="1" t="n">
+      <c r="B615" s="3" t="n">
         <v>42646</v>
       </c>
       <c r="C615" t="inlineStr"/>
@@ -26826,7 +26839,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B616" s="1" t="n">
+      <c r="B616" s="3" t="n">
         <v>42663</v>
       </c>
       <c r="C616" t="inlineStr"/>
@@ -26867,7 +26880,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B617" s="1" t="n">
+      <c r="B617" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C617" t="inlineStr"/>
@@ -26910,7 +26923,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B618" s="1" t="n">
+      <c r="B618" s="3" t="n">
         <v>42697</v>
       </c>
       <c r="C618" t="inlineStr"/>
@@ -26949,7 +26962,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B619" s="1" t="n">
+      <c r="B619" s="3" t="n">
         <v>42709</v>
       </c>
       <c r="C619" t="inlineStr"/>
@@ -27006,7 +27019,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B620" s="1" t="n">
+      <c r="B620" s="3" t="n">
         <v>42726</v>
       </c>
       <c r="C620" t="inlineStr"/>
@@ -27047,7 +27060,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B621" s="1" t="n">
+      <c r="B621" s="3" t="n">
         <v>42747</v>
       </c>
       <c r="C621" t="inlineStr"/>
@@ -27088,7 +27101,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B622" s="1" t="n">
+      <c r="B622" s="3" t="n">
         <v>42765</v>
       </c>
       <c r="C622" t="inlineStr"/>
@@ -27125,7 +27138,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B623" s="1" t="n">
+      <c r="B623" s="3" t="n">
         <v>42766</v>
       </c>
       <c r="C623" t="inlineStr"/>
@@ -27166,7 +27179,7 @@
           <t>Wakanui2016Sow14-AprCmNormal</t>
         </is>
       </c>
-      <c r="B624" s="1" t="n">
+      <c r="B624" s="3" t="n">
         <v>42776</v>
       </c>
       <c r="C624" t="inlineStr">
@@ -27225,7 +27238,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B625" s="1" t="n">
+      <c r="B625" s="3" t="n">
         <v>42424</v>
       </c>
       <c r="C625" t="inlineStr"/>
@@ -27262,7 +27275,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B626" s="1" t="n">
+      <c r="B626" s="3" t="n">
         <v>42447</v>
       </c>
       <c r="C626" t="inlineStr"/>
@@ -27305,7 +27318,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B627" s="1" t="n">
+      <c r="B627" s="3" t="n">
         <v>42466</v>
       </c>
       <c r="C627" t="inlineStr"/>
@@ -27348,7 +27361,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B628" s="1" t="n">
+      <c r="B628" s="3" t="n">
         <v>42478</v>
       </c>
       <c r="C628" t="inlineStr"/>
@@ -27391,7 +27404,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B629" s="1" t="n">
+      <c r="B629" s="3" t="n">
         <v>42487</v>
       </c>
       <c r="C629" t="inlineStr"/>
@@ -27430,7 +27443,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B630" s="1" t="n">
+      <c r="B630" s="3" t="n">
         <v>42488</v>
       </c>
       <c r="C630" t="inlineStr"/>
@@ -27469,7 +27482,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B631" s="1" t="n">
+      <c r="B631" s="3" t="n">
         <v>42500</v>
       </c>
       <c r="C631" t="inlineStr"/>
@@ -27508,7 +27521,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B632" s="1" t="n">
+      <c r="B632" s="3" t="n">
         <v>42501</v>
       </c>
       <c r="C632" t="inlineStr"/>
@@ -27551,7 +27564,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B633" s="1" t="n">
+      <c r="B633" s="3" t="n">
         <v>42521</v>
       </c>
       <c r="C633" t="inlineStr"/>
@@ -27592,7 +27605,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B634" s="1" t="n">
+      <c r="B634" s="3" t="n">
         <v>42544</v>
       </c>
       <c r="C634" t="inlineStr"/>
@@ -27635,7 +27648,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B635" s="1" t="n">
+      <c r="B635" s="3" t="n">
         <v>42558</v>
       </c>
       <c r="C635" t="inlineStr"/>
@@ -27674,7 +27687,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B636" s="1" t="n">
+      <c r="B636" s="3" t="n">
         <v>42565</v>
       </c>
       <c r="C636" t="inlineStr"/>
@@ -27717,7 +27730,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B637" s="1" t="n">
+      <c r="B637" s="3" t="n">
         <v>42579</v>
       </c>
       <c r="C637" t="inlineStr"/>
@@ -27766,7 +27779,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B638" s="1" t="n">
+      <c r="B638" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C638" t="inlineStr"/>
@@ -27809,7 +27822,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B639" s="1" t="n">
+      <c r="B639" s="3" t="n">
         <v>42611</v>
       </c>
       <c r="C639" t="inlineStr"/>
@@ -27848,7 +27861,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B640" s="1" t="n">
+      <c r="B640" s="3" t="n">
         <v>42612</v>
       </c>
       <c r="C640" t="inlineStr"/>
@@ -27891,7 +27904,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B641" s="1" t="n">
+      <c r="B641" s="3" t="n">
         <v>42626</v>
       </c>
       <c r="C641" t="inlineStr"/>
@@ -27930,7 +27943,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B642" s="1" t="n">
+      <c r="B642" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C642" t="inlineStr"/>
@@ -27973,7 +27986,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B643" s="1" t="n">
+      <c r="B643" s="3" t="n">
         <v>42646</v>
       </c>
       <c r="C643" t="inlineStr"/>
@@ -28012,7 +28025,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B644" s="1" t="n">
+      <c r="B644" s="3" t="n">
         <v>42663</v>
       </c>
       <c r="C644" t="inlineStr"/>
@@ -28053,7 +28066,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B645" s="1" t="n">
+      <c r="B645" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C645" t="inlineStr"/>
@@ -28096,7 +28109,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B646" s="1" t="n">
+      <c r="B646" s="3" t="n">
         <v>42697</v>
       </c>
       <c r="C646" t="inlineStr"/>
@@ -28135,7 +28148,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B647" s="1" t="n">
+      <c r="B647" s="3" t="n">
         <v>42702</v>
       </c>
       <c r="C647" t="inlineStr"/>
@@ -28186,7 +28199,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B648" s="1" t="n">
+      <c r="B648" s="3" t="n">
         <v>42709</v>
       </c>
       <c r="C648" t="inlineStr"/>
@@ -28229,7 +28242,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B649" s="1" t="n">
+      <c r="B649" s="3" t="n">
         <v>42726</v>
       </c>
       <c r="C649" t="inlineStr"/>
@@ -28270,7 +28283,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B650" s="1" t="n">
+      <c r="B650" s="3" t="n">
         <v>42747</v>
       </c>
       <c r="C650" t="inlineStr"/>
@@ -28311,7 +28324,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B651" s="1" t="n">
+      <c r="B651" s="3" t="n">
         <v>42765</v>
       </c>
       <c r="C651" t="inlineStr"/>
@@ -28348,7 +28361,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B652" s="1" t="n">
+      <c r="B652" s="3" t="n">
         <v>42766</v>
       </c>
       <c r="C652" t="inlineStr"/>
@@ -28389,7 +28402,7 @@
           <t>Wakanui2016Sow24-FebCmNormal</t>
         </is>
       </c>
-      <c r="B653" s="1" t="n">
+      <c r="B653" s="3" t="n">
         <v>42776</v>
       </c>
       <c r="C653" t="inlineStr">
@@ -28448,7 +28461,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B654" s="1" t="n">
+      <c r="B654" s="3" t="n">
         <v>42458</v>
       </c>
       <c r="C654" t="inlineStr"/>
@@ -28485,7 +28498,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B655" s="1" t="n">
+      <c r="B655" s="3" t="n">
         <v>42478</v>
       </c>
       <c r="C655" t="inlineStr"/>
@@ -28528,7 +28541,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B656" s="1" t="n">
+      <c r="B656" s="3" t="n">
         <v>42487</v>
       </c>
       <c r="C656" t="inlineStr"/>
@@ -28567,7 +28580,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B657" s="1" t="n">
+      <c r="B657" s="3" t="n">
         <v>42488</v>
       </c>
       <c r="C657" t="inlineStr"/>
@@ -28606,7 +28619,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B658" s="1" t="n">
+      <c r="B658" s="3" t="n">
         <v>42500</v>
       </c>
       <c r="C658" t="inlineStr"/>
@@ -28645,7 +28658,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B659" s="1" t="n">
+      <c r="B659" s="3" t="n">
         <v>42501</v>
       </c>
       <c r="C659" t="inlineStr"/>
@@ -28688,7 +28701,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B660" s="1" t="n">
+      <c r="B660" s="3" t="n">
         <v>42521</v>
       </c>
       <c r="C660" t="inlineStr"/>
@@ -28729,7 +28742,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B661" s="1" t="n">
+      <c r="B661" s="3" t="n">
         <v>42544</v>
       </c>
       <c r="C661" t="inlineStr"/>
@@ -28772,7 +28785,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B662" s="1" t="n">
+      <c r="B662" s="3" t="n">
         <v>42558</v>
       </c>
       <c r="C662" t="inlineStr"/>
@@ -28811,7 +28824,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B663" s="1" t="n">
+      <c r="B663" s="3" t="n">
         <v>42565</v>
       </c>
       <c r="C663" t="inlineStr"/>
@@ -28854,7 +28867,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B664" s="1" t="n">
+      <c r="B664" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C664" t="inlineStr"/>
@@ -28897,7 +28910,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B665" s="1" t="n">
+      <c r="B665" s="3" t="n">
         <v>42611</v>
       </c>
       <c r="C665" t="inlineStr"/>
@@ -28936,7 +28949,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B666" s="1" t="n">
+      <c r="B666" s="3" t="n">
         <v>42612</v>
       </c>
       <c r="C666" t="inlineStr"/>
@@ -28979,7 +28992,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B667" s="1" t="n">
+      <c r="B667" s="3" t="n">
         <v>42626</v>
       </c>
       <c r="C667" t="inlineStr"/>
@@ -29030,7 +29043,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B668" s="1" t="n">
+      <c r="B668" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C668" t="inlineStr"/>
@@ -29073,7 +29086,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B669" s="1" t="n">
+      <c r="B669" s="3" t="n">
         <v>42646</v>
       </c>
       <c r="C669" t="inlineStr"/>
@@ -29112,7 +29125,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B670" s="1" t="n">
+      <c r="B670" s="3" t="n">
         <v>42663</v>
       </c>
       <c r="C670" t="inlineStr"/>
@@ -29153,7 +29166,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B671" s="1" t="n">
+      <c r="B671" s="3" t="n">
         <v>42689</v>
       </c>
       <c r="C671" t="inlineStr"/>
@@ -29196,7 +29209,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B672" s="1" t="n">
+      <c r="B672" s="3" t="n">
         <v>42697</v>
       </c>
       <c r="C672" t="inlineStr"/>
@@ -29235,7 +29248,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B673" s="1" t="n">
+      <c r="B673" s="3" t="n">
         <v>42702</v>
       </c>
       <c r="C673" t="inlineStr"/>
@@ -29286,7 +29299,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B674" s="1" t="n">
+      <c r="B674" s="3" t="n">
         <v>42709</v>
       </c>
       <c r="C674" t="inlineStr"/>
@@ -29329,7 +29342,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B675" s="1" t="n">
+      <c r="B675" s="3" t="n">
         <v>42726</v>
       </c>
       <c r="C675" t="inlineStr"/>
@@ -29370,7 +29383,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B676" s="1" t="n">
+      <c r="B676" s="3" t="n">
         <v>42747</v>
       </c>
       <c r="C676" t="inlineStr"/>
@@ -29411,7 +29424,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B677" s="1" t="n">
+      <c r="B677" s="3" t="n">
         <v>42765</v>
       </c>
       <c r="C677" t="inlineStr"/>
@@ -29448,7 +29461,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B678" s="1" t="n">
+      <c r="B678" s="3" t="n">
         <v>42766</v>
       </c>
       <c r="C678" t="inlineStr"/>
@@ -29489,7 +29502,7 @@
           <t>Wakanui2016Sow29-MarCmNormal</t>
         </is>
       </c>
-      <c r="B679" s="1" t="n">
+      <c r="B679" s="3" t="n">
         <v>42776</v>
       </c>
       <c r="C679" t="inlineStr">
@@ -29548,7 +29561,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B680" s="1" t="n">
+      <c r="B680" s="3" t="n">
         <v>42803</v>
       </c>
       <c r="C680" t="inlineStr"/>
@@ -29585,7 +29598,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B681" s="1" t="n">
+      <c r="B681" s="3" t="n">
         <v>42818</v>
       </c>
       <c r="C681" t="inlineStr"/>
@@ -29628,7 +29641,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B682" s="1" t="n">
+      <c r="B682" s="3" t="n">
         <v>42835</v>
       </c>
       <c r="C682" t="inlineStr"/>
@@ -29673,7 +29686,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B683" s="1" t="n">
+      <c r="B683" s="3" t="n">
         <v>42858</v>
       </c>
       <c r="C683" t="inlineStr"/>
@@ -29716,7 +29729,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B684" s="1" t="n">
+      <c r="B684" s="3" t="n">
         <v>42863</v>
       </c>
       <c r="C684" t="inlineStr"/>
@@ -29755,7 +29768,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B685" s="1" t="n">
+      <c r="B685" s="3" t="n">
         <v>42880</v>
       </c>
       <c r="C685" t="inlineStr"/>
@@ -29800,7 +29813,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B686" s="1" t="n">
+      <c r="B686" s="3" t="n">
         <v>42898</v>
       </c>
       <c r="C686" t="inlineStr"/>
@@ -29845,7 +29858,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B687" s="1" t="n">
+      <c r="B687" s="3" t="n">
         <v>42919</v>
       </c>
       <c r="C687" t="inlineStr"/>
@@ -29890,7 +29903,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B688" s="1" t="n">
+      <c r="B688" s="3" t="n">
         <v>42934</v>
       </c>
       <c r="C688" t="inlineStr"/>
@@ -29929,7 +29942,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B689" s="1" t="n">
+      <c r="B689" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C689" t="inlineStr"/>
@@ -29972,7 +29985,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B690" s="1" t="n">
+      <c r="B690" s="3" t="n">
         <v>42964</v>
       </c>
       <c r="C690" t="inlineStr"/>
@@ -30029,7 +30042,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B691" s="1" t="n">
+      <c r="B691" s="3" t="n">
         <v>42986</v>
       </c>
       <c r="C691" t="inlineStr"/>
@@ -30074,7 +30087,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B692" s="1" t="n">
+      <c r="B692" s="3" t="n">
         <v>43013</v>
       </c>
       <c r="C692" t="inlineStr"/>
@@ -30119,7 +30132,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B693" s="1" t="n">
+      <c r="B693" s="3" t="n">
         <v>43028</v>
       </c>
       <c r="C693" t="inlineStr"/>
@@ -30164,7 +30177,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B694" s="1" t="n">
+      <c r="B694" s="3" t="n">
         <v>43046</v>
       </c>
       <c r="C694" t="inlineStr"/>
@@ -30209,7 +30222,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B695" s="1" t="n">
+      <c r="B695" s="3" t="n">
         <v>43059</v>
       </c>
       <c r="C695" t="inlineStr"/>
@@ -30262,7 +30275,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B696" s="1" t="n">
+      <c r="B696" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="C696" t="inlineStr"/>
@@ -30305,7 +30318,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B697" s="1" t="n">
+      <c r="B697" s="3" t="n">
         <v>43090</v>
       </c>
       <c r="C697" t="inlineStr"/>
@@ -30350,7 +30363,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B698" s="1" t="n">
+      <c r="B698" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C698" t="inlineStr"/>
@@ -30395,7 +30408,7 @@
           <t>Wakanui2017Sow09-MarCmNormal</t>
         </is>
       </c>
-      <c r="B699" s="1" t="n">
+      <c r="B699" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C699" t="inlineStr">
@@ -30456,7 +30469,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B700" s="1" t="n">
+      <c r="B700" s="3" t="n">
         <v>42844</v>
       </c>
       <c r="C700" t="inlineStr"/>
@@ -30493,7 +30506,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B701" s="1" t="n">
+      <c r="B701" s="3" t="n">
         <v>42858</v>
       </c>
       <c r="C701" t="inlineStr"/>
@@ -30534,7 +30547,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B702" s="1" t="n">
+      <c r="B702" s="3" t="n">
         <v>42863</v>
       </c>
       <c r="C702" t="inlineStr"/>
@@ -30573,7 +30586,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B703" s="1" t="n">
+      <c r="B703" s="3" t="n">
         <v>42880</v>
       </c>
       <c r="C703" t="inlineStr"/>
@@ -30618,7 +30631,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B704" s="1" t="n">
+      <c r="B704" s="3" t="n">
         <v>42898</v>
       </c>
       <c r="C704" t="inlineStr"/>
@@ -30663,7 +30676,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B705" s="1" t="n">
+      <c r="B705" s="3" t="n">
         <v>42919</v>
       </c>
       <c r="C705" t="inlineStr"/>
@@ -30708,7 +30721,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B706" s="1" t="n">
+      <c r="B706" s="3" t="n">
         <v>42934</v>
       </c>
       <c r="C706" t="inlineStr"/>
@@ -30747,7 +30760,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B707" s="1" t="n">
+      <c r="B707" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C707" t="inlineStr"/>
@@ -30790,7 +30803,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B708" s="1" t="n">
+      <c r="B708" s="3" t="n">
         <v>42964</v>
       </c>
       <c r="C708" t="inlineStr"/>
@@ -30835,7 +30848,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B709" s="1" t="n">
+      <c r="B709" s="3" t="n">
         <v>42986</v>
       </c>
       <c r="C709" t="inlineStr"/>
@@ -30880,7 +30893,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B710" s="1" t="n">
+      <c r="B710" s="3" t="n">
         <v>43013</v>
       </c>
       <c r="C710" t="inlineStr"/>
@@ -30937,7 +30950,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B711" s="1" t="n">
+      <c r="B711" s="3" t="n">
         <v>43028</v>
       </c>
       <c r="C711" t="inlineStr"/>
@@ -30982,7 +30995,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B712" s="1" t="n">
+      <c r="B712" s="3" t="n">
         <v>43046</v>
       </c>
       <c r="C712" t="inlineStr"/>
@@ -31027,7 +31040,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B713" s="1" t="n">
+      <c r="B713" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C713" t="inlineStr"/>
@@ -31080,7 +31093,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B714" s="1" t="n">
+      <c r="B714" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="C714" t="inlineStr"/>
@@ -31123,7 +31136,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B715" s="1" t="n">
+      <c r="B715" s="3" t="n">
         <v>43090</v>
       </c>
       <c r="C715" t="inlineStr"/>
@@ -31168,7 +31181,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B716" s="1" t="n">
+      <c r="B716" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C716" t="inlineStr"/>
@@ -31213,7 +31226,7 @@
           <t>Wakanui2017Sow19-AprCmNormal</t>
         </is>
       </c>
-      <c r="B717" s="1" t="n">
+      <c r="B717" s="3" t="n">
         <v>43129</v>
       </c>
       <c r="C717" t="inlineStr">
@@ -31278,7 +31291,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B718" s="1" t="n">
+      <c r="B718" s="3" t="n">
         <v>42824</v>
       </c>
       <c r="C718" t="inlineStr"/>
@@ -31315,7 +31328,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B719" s="1" t="n">
+      <c r="B719" s="3" t="n">
         <v>42835</v>
       </c>
       <c r="C719" t="inlineStr"/>
@@ -31356,7 +31369,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B720" s="1" t="n">
+      <c r="B720" s="3" t="n">
         <v>42858</v>
       </c>
       <c r="C720" t="inlineStr"/>
@@ -31399,7 +31412,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B721" s="1" t="n">
+      <c r="B721" s="3" t="n">
         <v>42863</v>
       </c>
       <c r="C721" t="inlineStr"/>
@@ -31438,7 +31451,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B722" s="1" t="n">
+      <c r="B722" s="3" t="n">
         <v>42880</v>
       </c>
       <c r="C722" t="inlineStr"/>
@@ -31483,7 +31496,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B723" s="1" t="n">
+      <c r="B723" s="3" t="n">
         <v>42898</v>
       </c>
       <c r="C723" t="inlineStr"/>
@@ -31528,7 +31541,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B724" s="1" t="n">
+      <c r="B724" s="3" t="n">
         <v>42919</v>
       </c>
       <c r="C724" t="inlineStr"/>
@@ -31573,7 +31586,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B725" s="1" t="n">
+      <c r="B725" s="3" t="n">
         <v>42934</v>
       </c>
       <c r="C725" t="inlineStr"/>
@@ -31612,7 +31625,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B726" s="1" t="n">
+      <c r="B726" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C726" t="inlineStr"/>
@@ -31655,7 +31668,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B727" s="1" t="n">
+      <c r="B727" s="3" t="n">
         <v>42964</v>
       </c>
       <c r="C727" t="inlineStr"/>
@@ -31700,7 +31713,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B728" s="1" t="n">
+      <c r="B728" s="3" t="n">
         <v>42986</v>
       </c>
       <c r="C728" t="inlineStr"/>
@@ -31757,7 +31770,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B729" s="1" t="n">
+      <c r="B729" s="3" t="n">
         <v>43013</v>
       </c>
       <c r="C729" t="inlineStr"/>
@@ -31802,7 +31815,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B730" s="1" t="n">
+      <c r="B730" s="3" t="n">
         <v>43028</v>
       </c>
       <c r="C730" t="inlineStr"/>
@@ -31847,7 +31860,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B731" s="1" t="n">
+      <c r="B731" s="3" t="n">
         <v>43046</v>
       </c>
       <c r="C731" t="inlineStr"/>
@@ -31892,7 +31905,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B732" s="1" t="n">
+      <c r="B732" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C732" t="inlineStr"/>
@@ -31945,7 +31958,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B733" s="1" t="n">
+      <c r="B733" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="C733" t="inlineStr"/>
@@ -31988,7 +32001,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B734" s="1" t="n">
+      <c r="B734" s="3" t="n">
         <v>43090</v>
       </c>
       <c r="C734" t="inlineStr"/>
@@ -32033,7 +32046,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B735" s="1" t="n">
+      <c r="B735" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C735" t="inlineStr"/>
@@ -32078,7 +32091,7 @@
           <t>Wakanui2017Sow30-MarCmNormal</t>
         </is>
       </c>
-      <c r="B736" s="1" t="n">
+      <c r="B736" s="3" t="n">
         <v>43129</v>
       </c>
       <c r="C736" t="inlineStr">
